--- a/apps/features/backlog/desktop/windows/signup/signup_password_field.xlsx
+++ b/apps/features/backlog/desktop/windows/signup/signup_password_field.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\signup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D877870C-7020-4A11-ACBD-72682662395A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC88C5-13CB-4DC0-88A5-AB7518AA18B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>should ensure system handles emoji correctly</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2670,7 +2673,7 @@
         <v>107</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
